--- a/data/trans_orig/P78_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DD6B035-C10F-467F-9678-6B0035A02AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{887CF55B-9FC0-4204-8364-D81ED72419FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{603FFCD7-291E-43CC-8493-1D941DDB26E3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE9CABF3-6B85-457E-97B8-FDEE9A8F92B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según si trabajan actualmente en 2023 (Tasa respuesta: 29,19%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>80,02%</t>
   </si>
   <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>48,05%</t>
   </si>
   <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
   </si>
   <si>
     <t>57,13%</t>
   </si>
   <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>19,98%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
   </si>
   <si>
     <t>51,95%</t>
   </si>
   <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
   </si>
   <si>
     <t>42,87%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>63,99%</t>
   </si>
   <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>53,82%</t>
   </si>
   <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
   </si>
   <si>
     <t>56,66%</t>
   </si>
   <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
   </si>
   <si>
     <t>36,01%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
   </si>
   <si>
     <t>46,18%</t>
   </si>
   <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
   </si>
   <si>
     <t>43,34%</t>
   </si>
   <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>77,69%</t>
   </si>
   <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>54,33%</t>
   </si>
   <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
   </si>
   <si>
     <t>60,14%</t>
   </si>
   <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
   </si>
   <si>
     <t>22,31%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>45,67%</t>
   </si>
   <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
   </si>
   <si>
     <t>39,86%</t>
   </si>
   <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>67,39%</t>
   </si>
   <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
   </si>
   <si>
     <t>54,92%</t>
   </si>
   <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
   </si>
   <si>
     <t>57,28%</t>
   </si>
   <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
   </si>
   <si>
     <t>32,61%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
   </si>
   <si>
     <t>45,08%</t>
   </si>
   <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
   </si>
   <si>
     <t>42,72%</t>
   </si>
   <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>79,58%</t>
   </si>
   <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
   </si>
   <si>
     <t>45,88%</t>
   </si>
   <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
   </si>
   <si>
     <t>53,85%</t>
   </si>
   <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
   </si>
   <si>
     <t>54,12%</t>
   </si>
   <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
   </si>
   <si>
     <t>46,15%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>68,51%</t>
   </si>
   <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>62,61%</t>
   </si>
   <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>64,2%</t>
   </si>
   <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
   </si>
   <si>
     <t>37,39%</t>
   </si>
   <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
   </si>
   <si>
     <t>35,8%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +422,55 @@
     <t>83,3%</t>
   </si>
   <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>45,78%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>54,19%</t>
   </si>
   <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
   </si>
   <si>
     <t>16,7%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>54,22%</t>
   </si>
   <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
   </si>
   <si>
     <t>45,81%</t>
   </si>
   <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,109 +479,103 @@
     <t>83,75%</t>
   </si>
   <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>60,48%</t>
   </si>
   <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
   </si>
   <si>
     <t>64,91%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
+    <t>68,83%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
   </si>
   <si>
     <t>39,52%</t>
   </si>
   <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
   </si>
   <si>
     <t>35,09%</t>
   </si>
   <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
+    <t>31,17%</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
   </si>
   <si>
     <t>54,03%</t>
   </si>
   <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
   </si>
   <si>
     <t>59,14%</t>
   </si>
   <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>45,97%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
   </si>
   <si>
     <t>40,86%</t>
   </si>
   <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D5060C-5D5D-4B55-8C4B-F7C8B3EA9CF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA3DC07-C061-45FA-BD3B-A373E1C501EE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2238,10 +2232,10 @@
         <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2250,13 @@
         <v>17442</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>259</v>
@@ -2271,13 +2265,13 @@
         <v>180056</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>270</v>
@@ -2286,13 +2280,13 @@
         <v>197498</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2354,13 @@
         <v>395954</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1120</v>
@@ -2375,13 +2369,13 @@
         <v>933752</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1360</v>
@@ -2390,13 +2384,13 @@
         <v>1329706</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2405,13 @@
         <v>124066</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1104</v>
@@ -2426,13 +2420,13 @@
         <v>794464</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>1192</v>
@@ -2441,13 +2435,13 @@
         <v>918530</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{887CF55B-9FC0-4204-8364-D81ED72419FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB7D5EF5-817F-45D2-82AC-141944D89E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE9CABF3-6B85-457E-97B8-FDEE9A8F92B3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{34989882-5DFD-4625-83C1-E86A169CEABB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA3DC07-C061-45FA-BD3B-A373E1C501EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D6FE79-AE7E-4378-B115-318E3CDD9B5F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB7D5EF5-817F-45D2-82AC-141944D89E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E127076C-7D44-4529-B4F4-BFBDDC655D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{34989882-5DFD-4625-83C1-E86A169CEABB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13B25B96-DCBE-4811-9A4E-D855F7D5E2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
-  <si>
-    <t>Población según si trabajan actualmente en 2023 (Tasa respuesta: 29,19%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+  <si>
+    <t>Población según si la persona sustentadora principal trabaja actualmente en 2023 (Tasa respuesta: 66,62%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,448 +134,454 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D6FE79-AE7E-4378-B115-318E3CDD9B5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B17F982-BD8E-4864-B7E4-2BD007B20136}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1108,10 +1114,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="D4" s="7">
-        <v>36323</v>
+        <v>184476</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1123,10 +1129,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>114</v>
+        <v>332</v>
       </c>
       <c r="I4" s="7">
-        <v>54967</v>
+        <v>171315</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1138,10 +1144,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>141</v>
+        <v>551</v>
       </c>
       <c r="N4" s="7">
-        <v>91290</v>
+        <v>355790</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1210,10 +1216,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="D6" s="7">
-        <v>45395</v>
+        <v>193548</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1225,10 +1231,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>227</v>
+        <v>445</v>
       </c>
       <c r="I6" s="7">
-        <v>114385</v>
+        <v>230733</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1240,10 +1246,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>264</v>
+        <v>674</v>
       </c>
       <c r="N6" s="7">
-        <v>159780</v>
+        <v>424280</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1263,10 +1269,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="D7" s="7">
-        <v>60701</v>
+        <v>283049</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1278,10 +1284,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>144</v>
+        <v>322</v>
       </c>
       <c r="I7" s="7">
-        <v>131831</v>
+        <v>276753</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1293,10 +1299,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>165</v>
+        <v>507</v>
       </c>
       <c r="N7" s="7">
-        <v>192533</v>
+        <v>559802</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1365,10 +1371,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="D9" s="7">
-        <v>94859</v>
+        <v>317207</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1380,10 +1386,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>305</v>
+        <v>483</v>
       </c>
       <c r="I9" s="7">
-        <v>244942</v>
+        <v>389864</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1395,10 +1401,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>341</v>
+        <v>683</v>
       </c>
       <c r="N9" s="7">
-        <v>339802</v>
+        <v>707071</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1418,10 +1424,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="D10" s="7">
-        <v>42603</v>
+        <v>183375</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1433,10 +1439,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="I10" s="7">
-        <v>89903</v>
+        <v>188752</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1448,10 +1454,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>141</v>
+        <v>419</v>
       </c>
       <c r="N10" s="7">
-        <v>132507</v>
+        <v>372128</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1487,7 +1493,7 @@
         <v>115</v>
       </c>
       <c r="I11" s="7">
-        <v>75583</v>
+        <v>75584</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1520,10 +1526,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="D12" s="7">
-        <v>54841</v>
+        <v>195613</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1535,10 +1541,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>225</v>
+        <v>359</v>
       </c>
       <c r="I12" s="7">
-        <v>165486</v>
+        <v>264336</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1550,10 +1556,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>266</v>
+        <v>544</v>
       </c>
       <c r="N12" s="7">
-        <v>220328</v>
+        <v>459949</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1573,10 +1579,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="D13" s="7">
-        <v>29084</v>
+        <v>186704</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1588,10 +1594,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="I13" s="7">
-        <v>101498</v>
+        <v>253751</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1603,10 +1609,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>118</v>
+        <v>398</v>
       </c>
       <c r="N13" s="7">
-        <v>130581</v>
+        <v>440455</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1627,7 +1633,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>14071</v>
+        <v>14072</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1675,10 +1681,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="D15" s="7">
-        <v>43155</v>
+        <v>200776</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1690,10 +1696,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>261</v>
+        <v>424</v>
       </c>
       <c r="I15" s="7">
-        <v>184811</v>
+        <v>337064</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1705,10 +1711,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>286</v>
+        <v>566</v>
       </c>
       <c r="N15" s="7">
-        <v>227966</v>
+        <v>537840</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1728,10 +1734,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="D16" s="7">
-        <v>16195</v>
+        <v>140500</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1743,10 +1749,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>52</v>
+        <v>279</v>
       </c>
       <c r="I16" s="7">
-        <v>30138</v>
+        <v>140746</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1758,10 +1764,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>65</v>
+        <v>461</v>
       </c>
       <c r="N16" s="7">
-        <v>46333</v>
+        <v>281245</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1830,10 +1836,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="D18" s="7">
-        <v>20351</v>
+        <v>144656</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1845,10 +1851,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>137</v>
+        <v>364</v>
       </c>
       <c r="I18" s="7">
-        <v>65695</v>
+        <v>176303</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1860,10 +1866,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>157</v>
+        <v>553</v>
       </c>
       <c r="N18" s="7">
-        <v>86046</v>
+        <v>320958</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1883,10 +1889,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D19" s="7">
-        <v>33301</v>
+        <v>156425</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1898,10 +1904,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="I19" s="7">
-        <v>82715</v>
+        <v>151597</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1913,10 +1919,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>138</v>
+        <v>377</v>
       </c>
       <c r="N19" s="7">
-        <v>116016</v>
+        <v>308023</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1937,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="7">
-        <v>15303</v>
+        <v>15304</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1985,10 +1991,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="D21" s="7">
-        <v>48604</v>
+        <v>171729</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2000,10 +2006,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="I21" s="7">
-        <v>132108</v>
+        <v>200990</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2015,10 +2021,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>252</v>
+        <v>491</v>
       </c>
       <c r="N21" s="7">
-        <v>180712</v>
+        <v>372719</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2038,10 +2044,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>56</v>
+        <v>350</v>
       </c>
       <c r="D22" s="7">
-        <v>87888</v>
+        <v>402489</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -2053,10 +2059,10 @@
         <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>195</v>
+        <v>572</v>
       </c>
       <c r="I22" s="7">
-        <v>167200</v>
+        <v>438084</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -2068,10 +2074,10 @@
         <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>251</v>
+        <v>922</v>
       </c>
       <c r="N22" s="7">
-        <v>255088</v>
+        <v>840573</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -2140,10 +2146,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>65</v>
+        <v>359</v>
       </c>
       <c r="D24" s="7">
-        <v>105513</v>
+        <v>420114</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2155,10 +2161,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>310</v>
+        <v>687</v>
       </c>
       <c r="I24" s="7">
-        <v>365233</v>
+        <v>636117</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2170,10 +2176,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>375</v>
+        <v>1046</v>
       </c>
       <c r="N24" s="7">
-        <v>470746</v>
+        <v>1056231</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2193,10 +2199,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>50</v>
+        <v>419</v>
       </c>
       <c r="D25" s="7">
-        <v>89859</v>
+        <v>565766</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>146</v>
@@ -2208,10 +2214,10 @@
         <v>148</v>
       </c>
       <c r="H25" s="7">
-        <v>291</v>
+        <v>579</v>
       </c>
       <c r="I25" s="7">
-        <v>275499</v>
+        <v>528962</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>149</v>
@@ -2223,19 +2229,19 @@
         <v>151</v>
       </c>
       <c r="M25" s="7">
-        <v>341</v>
+        <v>998</v>
       </c>
       <c r="N25" s="7">
-        <v>365358</v>
+        <v>1094728</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2256,13 @@
         <v>17442</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>259</v>
@@ -2265,13 +2271,13 @@
         <v>180056</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>270</v>
@@ -2280,13 +2286,13 @@
         <v>197498</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,10 +2301,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>61</v>
+        <v>430</v>
       </c>
       <c r="D27" s="7">
-        <v>107301</v>
+        <v>583208</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2310,10 +2316,10 @@
         <v>30</v>
       </c>
       <c r="H27" s="7">
-        <v>550</v>
+        <v>838</v>
       </c>
       <c r="I27" s="7">
-        <v>455555</v>
+        <v>709018</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2325,10 +2331,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>611</v>
+        <v>1268</v>
       </c>
       <c r="N27" s="7">
-        <v>562856</v>
+        <v>1292226</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2348,49 +2354,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>240</v>
+        <v>1830</v>
       </c>
       <c r="D28" s="7">
-        <v>395954</v>
+        <v>2102784</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
-        <v>1120</v>
+        <v>2803</v>
       </c>
       <c r="I28" s="7">
-        <v>933752</v>
+        <v>2149961</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
-        <v>1360</v>
+        <v>4633</v>
       </c>
       <c r="N28" s="7">
-        <v>1329706</v>
+        <v>4252746</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2411,13 @@
         <v>124066</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1104</v>
@@ -2420,13 +2426,13 @@
         <v>794464</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>1192</v>
@@ -2435,13 +2441,13 @@
         <v>918530</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,10 +2456,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>328</v>
+        <v>1918</v>
       </c>
       <c r="D30" s="7">
-        <v>520020</v>
+        <v>2226850</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2465,10 +2471,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>2224</v>
+        <v>3907</v>
       </c>
       <c r="I30" s="7">
-        <v>1728216</v>
+        <v>2944425</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2480,10 +2486,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>2552</v>
+        <v>5825</v>
       </c>
       <c r="N30" s="7">
-        <v>2248236</v>
+        <v>5171276</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E127076C-7D44-4529-B4F4-BFBDDC655D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40231391-7493-45FE-AFB4-1AE73D2EA07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13B25B96-DCBE-4811-9A4E-D855F7D5E2E1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DB34B5A7-812C-4FCF-AFD6-37B52848C117}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Población según si la persona sustentadora principal trabaja actualmente en 2023 (Tasa respuesta: 66,62%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,454 +134,436 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
   </si>
   <si>
     <t>77,52%</t>
   </si>
   <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B17F982-BD8E-4864-B7E4-2BD007B20136}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F9EAC0-99D2-403B-831F-B7366490B6E1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1117,7 +1099,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="7">
-        <v>184476</v>
+        <v>225942</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1132,7 +1114,7 @@
         <v>332</v>
       </c>
       <c r="I4" s="7">
-        <v>171315</v>
+        <v>183978</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1147,7 +1129,7 @@
         <v>551</v>
       </c>
       <c r="N4" s="7">
-        <v>355790</v>
+        <v>409920</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1168,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>9072</v>
+        <v>12558</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1183,7 +1165,7 @@
         <v>113</v>
       </c>
       <c r="I5" s="7">
-        <v>59418</v>
+        <v>63864</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1198,7 +1180,7 @@
         <v>123</v>
       </c>
       <c r="N5" s="7">
-        <v>68490</v>
+        <v>76422</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1219,7 +1201,7 @@
         <v>229</v>
       </c>
       <c r="D6" s="7">
-        <v>193548</v>
+        <v>238500</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1234,7 +1216,7 @@
         <v>445</v>
       </c>
       <c r="I6" s="7">
-        <v>230733</v>
+        <v>247842</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1249,7 +1231,7 @@
         <v>674</v>
       </c>
       <c r="N6" s="7">
-        <v>424280</v>
+        <v>486342</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1272,7 +1254,7 @@
         <v>185</v>
       </c>
       <c r="D7" s="7">
-        <v>283049</v>
+        <v>286595</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1287,7 +1269,7 @@
         <v>322</v>
       </c>
       <c r="I7" s="7">
-        <v>276753</v>
+        <v>257576</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1302,7 +1284,7 @@
         <v>507</v>
       </c>
       <c r="N7" s="7">
-        <v>559802</v>
+        <v>544171</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1323,7 +1305,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>34158</v>
+        <v>37757</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1338,7 +1320,7 @@
         <v>161</v>
       </c>
       <c r="I8" s="7">
-        <v>113111</v>
+        <v>104095</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1353,7 +1335,7 @@
         <v>176</v>
       </c>
       <c r="N8" s="7">
-        <v>147269</v>
+        <v>141852</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1374,7 +1356,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="7">
-        <v>317207</v>
+        <v>324352</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1389,7 +1371,7 @@
         <v>483</v>
       </c>
       <c r="I9" s="7">
-        <v>389864</v>
+        <v>361671</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1404,7 +1386,7 @@
         <v>683</v>
       </c>
       <c r="N9" s="7">
-        <v>707071</v>
+        <v>686023</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1409,7 @@
         <v>175</v>
       </c>
       <c r="D10" s="7">
-        <v>183375</v>
+        <v>182447</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1442,7 +1424,7 @@
         <v>244</v>
       </c>
       <c r="I10" s="7">
-        <v>188752</v>
+        <v>177378</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1457,7 +1439,7 @@
         <v>419</v>
       </c>
       <c r="N10" s="7">
-        <v>372128</v>
+        <v>359826</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1478,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>12238</v>
+        <v>12245</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1493,7 +1475,7 @@
         <v>115</v>
       </c>
       <c r="I11" s="7">
-        <v>75584</v>
+        <v>70432</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1508,7 +1490,7 @@
         <v>125</v>
       </c>
       <c r="N11" s="7">
-        <v>87821</v>
+        <v>82676</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1529,7 +1511,7 @@
         <v>185</v>
       </c>
       <c r="D12" s="7">
-        <v>195613</v>
+        <v>194692</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1544,7 +1526,7 @@
         <v>359</v>
       </c>
       <c r="I12" s="7">
-        <v>264336</v>
+        <v>247810</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1559,7 +1541,7 @@
         <v>544</v>
       </c>
       <c r="N12" s="7">
-        <v>459949</v>
+        <v>442502</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1582,7 +1564,7 @@
         <v>131</v>
       </c>
       <c r="D13" s="7">
-        <v>186704</v>
+        <v>182707</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1597,7 +1579,7 @@
         <v>267</v>
       </c>
       <c r="I13" s="7">
-        <v>253751</v>
+        <v>312750</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1612,7 +1594,7 @@
         <v>398</v>
       </c>
       <c r="N13" s="7">
-        <v>440455</v>
+        <v>495456</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1633,7 +1615,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>14072</v>
+        <v>13785</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1648,7 +1630,7 @@
         <v>157</v>
       </c>
       <c r="I14" s="7">
-        <v>83313</v>
+        <v>77363</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1663,7 +1645,7 @@
         <v>168</v>
       </c>
       <c r="N14" s="7">
-        <v>97385</v>
+        <v>91149</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1684,7 +1666,7 @@
         <v>142</v>
       </c>
       <c r="D15" s="7">
-        <v>200776</v>
+        <v>196492</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1699,7 +1681,7 @@
         <v>424</v>
       </c>
       <c r="I15" s="7">
-        <v>337064</v>
+        <v>390113</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1714,7 +1696,7 @@
         <v>566</v>
       </c>
       <c r="N15" s="7">
-        <v>537840</v>
+        <v>586605</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1737,7 +1719,7 @@
         <v>182</v>
       </c>
       <c r="D16" s="7">
-        <v>140500</v>
+        <v>127678</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1752,7 +1734,7 @@
         <v>279</v>
       </c>
       <c r="I16" s="7">
-        <v>140746</v>
+        <v>126534</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1767,7 +1749,7 @@
         <v>461</v>
       </c>
       <c r="N16" s="7">
-        <v>281245</v>
+        <v>254212</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1788,7 +1770,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>4156</v>
+        <v>3805</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1803,7 +1785,7 @@
         <v>85</v>
       </c>
       <c r="I17" s="7">
-        <v>35557</v>
+        <v>32140</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1818,7 +1800,7 @@
         <v>92</v>
       </c>
       <c r="N17" s="7">
-        <v>39713</v>
+        <v>35945</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1839,7 +1821,7 @@
         <v>189</v>
       </c>
       <c r="D18" s="7">
-        <v>144656</v>
+        <v>131483</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1854,7 +1836,7 @@
         <v>364</v>
       </c>
       <c r="I18" s="7">
-        <v>176303</v>
+        <v>158674</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1869,7 +1851,7 @@
         <v>553</v>
       </c>
       <c r="N18" s="7">
-        <v>320958</v>
+        <v>290157</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1892,7 +1874,7 @@
         <v>169</v>
       </c>
       <c r="D19" s="7">
-        <v>156425</v>
+        <v>153204</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1907,31 +1889,31 @@
         <v>208</v>
       </c>
       <c r="I19" s="7">
-        <v>151597</v>
+        <v>141372</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>377</v>
       </c>
       <c r="N19" s="7">
-        <v>308023</v>
+        <v>294576</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,46 +1925,46 @@
         <v>15</v>
       </c>
       <c r="D20" s="7">
-        <v>15304</v>
+        <v>14788</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
       </c>
       <c r="I20" s="7">
-        <v>49393</v>
+        <v>45894</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>114</v>
       </c>
       <c r="N20" s="7">
-        <v>64696</v>
+        <v>60682</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,7 +1976,7 @@
         <v>184</v>
       </c>
       <c r="D21" s="7">
-        <v>171729</v>
+        <v>167992</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2009,7 +1991,7 @@
         <v>307</v>
       </c>
       <c r="I21" s="7">
-        <v>200990</v>
+        <v>187266</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2024,7 +2006,7 @@
         <v>491</v>
       </c>
       <c r="N21" s="7">
-        <v>372719</v>
+        <v>355258</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2038,7 +2020,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2047,46 +2029,46 @@
         <v>350</v>
       </c>
       <c r="D22" s="7">
-        <v>402489</v>
+        <v>405970</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>572</v>
       </c>
       <c r="I22" s="7">
-        <v>438084</v>
+        <v>409810</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>922</v>
       </c>
       <c r="N22" s="7">
-        <v>840573</v>
+        <v>815781</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,46 +2080,46 @@
         <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>17625</v>
+        <v>18783</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>115</v>
       </c>
       <c r="I23" s="7">
-        <v>198033</v>
+        <v>284463</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>124</v>
       </c>
       <c r="N23" s="7">
-        <v>215658</v>
+        <v>303245</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,7 +2131,7 @@
         <v>359</v>
       </c>
       <c r="D24" s="7">
-        <v>420114</v>
+        <v>424753</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2164,7 +2146,7 @@
         <v>687</v>
       </c>
       <c r="I24" s="7">
-        <v>636117</v>
+        <v>694273</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2179,7 +2161,7 @@
         <v>1046</v>
       </c>
       <c r="N24" s="7">
-        <v>1056231</v>
+        <v>1119026</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2193,7 +2175,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2202,46 +2184,46 @@
         <v>419</v>
       </c>
       <c r="D25" s="7">
-        <v>565766</v>
+        <v>677314</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>579</v>
       </c>
       <c r="I25" s="7">
-        <v>528962</v>
+        <v>434036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>998</v>
       </c>
       <c r="N25" s="7">
-        <v>1094728</v>
+        <v>1111350</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,46 +2235,46 @@
         <v>11</v>
       </c>
       <c r="D26" s="7">
-        <v>17442</v>
+        <v>14312</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>259</v>
       </c>
       <c r="I26" s="7">
-        <v>180056</v>
+        <v>150063</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>270</v>
       </c>
       <c r="N26" s="7">
-        <v>197498</v>
+        <v>164375</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,7 +2286,7 @@
         <v>430</v>
       </c>
       <c r="D27" s="7">
-        <v>583208</v>
+        <v>691626</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2319,7 +2301,7 @@
         <v>838</v>
       </c>
       <c r="I27" s="7">
-        <v>709018</v>
+        <v>584099</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2334,7 +2316,7 @@
         <v>1268</v>
       </c>
       <c r="N27" s="7">
-        <v>1292226</v>
+        <v>1275725</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2357,46 +2339,46 @@
         <v>1830</v>
       </c>
       <c r="D28" s="7">
-        <v>2102784</v>
+        <v>2241856</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>2803</v>
       </c>
       <c r="I28" s="7">
-        <v>2149961</v>
+        <v>2043434</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>4633</v>
       </c>
       <c r="N28" s="7">
-        <v>4252746</v>
+        <v>4285290</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,46 +2390,46 @@
         <v>88</v>
       </c>
       <c r="D29" s="7">
-        <v>124066</v>
+        <v>128033</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="H29" s="7">
         <v>1104</v>
       </c>
       <c r="I29" s="7">
-        <v>794464</v>
+        <v>828314</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>1192</v>
       </c>
       <c r="N29" s="7">
-        <v>918530</v>
+        <v>956347</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,7 +2441,7 @@
         <v>1918</v>
       </c>
       <c r="D30" s="7">
-        <v>2226850</v>
+        <v>2369889</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2474,7 +2456,7 @@
         <v>3907</v>
       </c>
       <c r="I30" s="7">
-        <v>2944425</v>
+        <v>2871748</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2489,7 +2471,7 @@
         <v>5825</v>
       </c>
       <c r="N30" s="7">
-        <v>5171276</v>
+        <v>5241637</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2503,7 +2485,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
